--- a/Coordenadas ecuador.xlsx
+++ b/Coordenadas ecuador.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31dea61abb606fff/Desktop/Ecuador_CO2_ByProvince/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31dea61abb606fff/Desktop/Ecuador_CO2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{00C26460-B865-4755-B015-BF064427EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75ABDDB8-8259-4E7B-9CBE-916ED6D07E07}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{00C26460-B865-4755-B015-BF064427EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7666C91D-FA9B-46C0-8895-ABDF69C51290}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{5317847E-C500-4267-A6CD-F2C49C2FB172}"/>
   </bookViews>
@@ -177,12 +177,6 @@
     <t>-79°00'07''</t>
   </si>
   <si>
-    <t>-0°12'54''</t>
-  </si>
-  <si>
-    <t>-78°30'45''</t>
-  </si>
-  <si>
     <t>Riesgo</t>
   </si>
   <si>
@@ -199,6 +193,12 @@
   </si>
   <si>
     <t>Provincia</t>
+  </si>
+  <si>
+    <t>-78°80'42''</t>
+  </si>
+  <si>
+    <t>-0°22'06''</t>
   </si>
 </sst>
 </file>
@@ -558,14 +558,17 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -574,7 +577,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -595,7 +598,7 @@
         <v>279.1121</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -616,7 +619,7 @@
         <v>553.1721</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
@@ -637,7 +640,7 @@
         <v>166.61150000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -658,7 +661,7 @@
         <v>654.29740000000004</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -679,7 +682,7 @@
         <v>1119.1253999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -700,7 +703,7 @@
         <v>271.50309999999996</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -721,7 +724,7 @@
         <v>512.79370000000006</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
@@ -742,7 +745,7 @@
         <v>397.07670000000002</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -763,7 +766,7 @@
         <v>288.33609999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
@@ -784,7 +787,7 @@
         <v>222.82629999999997</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
@@ -805,7 +808,7 @@
         <v>668.41759999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>39</v>
@@ -826,7 +829,7 @@
         <v>448.9796</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>41</v>
@@ -847,7 +850,7 @@
         <v>336.4391</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>43</v>
@@ -868,7 +871,7 @@
         <v>1072.652</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
@@ -889,13 +892,13 @@
         <v>3472.3270000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Coordenadas ecuador.xlsx
+++ b/Coordenadas ecuador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31dea61abb606fff/Desktop/Ecuador_CO2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{00C26460-B865-4755-B015-BF064427EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7666C91D-FA9B-46C0-8895-ABDF69C51290}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{00C26460-B865-4755-B015-BF064427EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA34FDD2-843B-4587-BFDF-40CEDBBC5049}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{5317847E-C500-4267-A6CD-F2C49C2FB172}"/>
   </bookViews>
@@ -198,7 +198,7 @@
     <t>-78°80'42''</t>
   </si>
   <si>
-    <t>-0°22'06''</t>
+    <t>-0°22'22''</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
